--- a/List of variables seeps.xlsx
+++ b/List of variables seeps.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
     <t>compactness</t>
   </si>
@@ -339,33 +339,15 @@
     <t>Predictor set</t>
   </si>
   <si>
-    <t>Soil characteristics PCA factors</t>
-  </si>
-  <si>
     <t>Geologic Formation Dummy variables</t>
   </si>
   <si>
     <t>Species present?</t>
   </si>
   <si>
-    <t>(11 Soil characteristics - see PCA factors)</t>
-  </si>
-  <si>
-    <t>(These geologic formation / rock types have dummy variables below)</t>
-  </si>
-  <si>
     <t>Predictor</t>
   </si>
   <si>
-    <t>Precipitation the day before sampling (mm)</t>
-  </si>
-  <si>
-    <t>Snowfall the day before sampling (mm)</t>
-  </si>
-  <si>
-    <t>Snow depth the day before sampling (mm)</t>
-  </si>
-  <si>
     <t>Elevation (meters)</t>
   </si>
   <si>
@@ -399,9 +381,6 @@
     <t>Primary Rock Type Dummy Variables</t>
   </si>
   <si>
-    <t>Secondary Rock Type Dummy Variables</t>
-  </si>
-  <si>
     <t>Number of seeps on pervious land patch (count)</t>
   </si>
   <si>
@@ -411,7 +390,25 @@
     <t>Seep density on patch (seeps per square meter)</t>
   </si>
   <si>
-    <t>(Which border - NPS or DC Park)</t>
+    <t>Secondary Rock Type Dummy Variables (do not use, same meaning as Rock Type 1)</t>
+  </si>
+  <si>
+    <t>Soil characteristics PCA factors (use the first two)</t>
+  </si>
+  <si>
+    <t>(11 Soil characteristics - did PCA - use PCA factors below)</t>
+  </si>
+  <si>
+    <t>(geologic formation - has dummy variables below)</t>
+  </si>
+  <si>
+    <t>(These rock types have dummy variables below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     (identifies which border - NPS or DC Park)</t>
+  </si>
+  <si>
+    <t>Precipitation the day before sampling (mm) - appears to not matter at all!</t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,12 +439,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -455,17 +470,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,27 +774,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -932,7 +961,7 @@
         <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +972,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,9 +1036,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1019,11 +1046,13 @@
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1033,11 +1062,13 @@
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1047,220 +1078,213 @@
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>109</v>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1275,10 +1299,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1286,10 +1310,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,10 +1328,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,7 +1340,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1391,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,68 +1426,68 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>107</v>
+      <c r="C82" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>106</v>
+      <c r="C87" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -1494,39 +1518,37 @@
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>125</v>
+      <c r="C93" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
